--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnc-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H2">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I2">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J2">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>1869.52292450531</v>
+        <v>1954.954971338473</v>
       </c>
       <c r="R2">
-        <v>1869.52292450531</v>
+        <v>7819.819885353891</v>
       </c>
       <c r="S2">
-        <v>0.01773408719139823</v>
+        <v>0.01648596824172194</v>
       </c>
       <c r="T2">
-        <v>0.01773408719139823</v>
+        <v>0.009834425281987249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H3">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I3">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J3">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>1265.166546640515</v>
+        <v>1410.75929097556</v>
       </c>
       <c r="R3">
-        <v>1265.166546640515</v>
+        <v>8464.55574585336</v>
       </c>
       <c r="S3">
-        <v>0.01200122959481761</v>
+        <v>0.01189681256536241</v>
       </c>
       <c r="T3">
-        <v>0.01200122959481761</v>
+        <v>0.0106452632219474</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H4">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I4">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J4">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>954.4774934256451</v>
+        <v>1004.125108358265</v>
       </c>
       <c r="R4">
-        <v>954.4774934256451</v>
+        <v>6024.750650149591</v>
       </c>
       <c r="S4">
-        <v>0.009054067681527132</v>
+        <v>0.008467701246221634</v>
       </c>
       <c r="T4">
-        <v>0.009054067681527132</v>
+        <v>0.007576895757212041</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H5">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I5">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J5">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>897.4467843666105</v>
+        <v>945.9642294242417</v>
       </c>
       <c r="R5">
-        <v>897.4467843666105</v>
+        <v>5675.78537654545</v>
       </c>
       <c r="S5">
-        <v>0.008513080698279624</v>
+        <v>0.007977235523443134</v>
       </c>
       <c r="T5">
-        <v>0.008513080698279624</v>
+        <v>0.007138027220649471</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H6">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I6">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J6">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>1318.59754969095</v>
+        <v>1446.02646532018</v>
       </c>
       <c r="R6">
-        <v>1318.59754969095</v>
+        <v>8676.15879192108</v>
       </c>
       <c r="S6">
-        <v>0.01250807016596011</v>
+        <v>0.01219421763337919</v>
       </c>
       <c r="T6">
-        <v>0.01250807016596011</v>
+        <v>0.01091138116027632</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.3598992923251</v>
+        <v>11.878645</v>
       </c>
       <c r="H7">
-        <v>11.3598992923251</v>
+        <v>23.75729</v>
       </c>
       <c r="I7">
-        <v>0.07484975927528713</v>
+        <v>0.0710367696905764</v>
       </c>
       <c r="J7">
-        <v>0.07484975927528713</v>
+        <v>0.05446630490984557</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>1585.431131883365</v>
+        <v>1661.920606561603</v>
       </c>
       <c r="R7">
-        <v>1585.431131883365</v>
+        <v>6647.682426246411</v>
       </c>
       <c r="S7">
-        <v>0.01503922394330443</v>
+        <v>0.0140148344804481</v>
       </c>
       <c r="T7">
-        <v>0.01503922394330443</v>
+        <v>0.008360312267773083</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H8">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I8">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J8">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>13694.26621421369</v>
+        <v>15311.86987314359</v>
       </c>
       <c r="R8">
-        <v>13694.26621421369</v>
+        <v>91871.21923886151</v>
       </c>
       <c r="S8">
-        <v>0.1299022910507214</v>
+        <v>0.1291236903923141</v>
       </c>
       <c r="T8">
-        <v>0.1299022910507214</v>
+        <v>0.1155398275683896</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H9">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I9">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J9">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>9267.352257580415</v>
+        <v>11049.54487568405</v>
       </c>
       <c r="R9">
-        <v>9267.352257580415</v>
+        <v>99445.90388115647</v>
       </c>
       <c r="S9">
-        <v>0.08790907606164818</v>
+        <v>0.09317986786227102</v>
       </c>
       <c r="T9">
-        <v>0.08790907606164818</v>
+        <v>0.1250659638786117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H10">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I10">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J10">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>6991.553149263916</v>
+        <v>7864.64814839768</v>
       </c>
       <c r="R10">
-        <v>6991.553149263916</v>
+        <v>70781.83333557911</v>
       </c>
       <c r="S10">
-        <v>0.06632109803368659</v>
+        <v>0.06632190587900415</v>
       </c>
       <c r="T10">
-        <v>0.06632109803368659</v>
+        <v>0.08901722309034035</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H11">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I11">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J11">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>6573.802876184785</v>
+        <v>7409.112433763955</v>
       </c>
       <c r="R11">
-        <v>6573.802876184785</v>
+        <v>66682.01190387559</v>
       </c>
       <c r="S11">
-        <v>0.06235836525843803</v>
+        <v>0.06248041211852128</v>
       </c>
       <c r="T11">
-        <v>0.06235836525843803</v>
+        <v>0.08386117242284424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H12">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I12">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J12">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>9658.734663366493</v>
+        <v>11325.76933725749</v>
       </c>
       <c r="R12">
-        <v>9658.734663366493</v>
+        <v>101931.9240353174</v>
       </c>
       <c r="S12">
-        <v>0.09162168617111027</v>
+        <v>0.09550924514607038</v>
       </c>
       <c r="T12">
-        <v>0.09162168617111027</v>
+        <v>0.1281924526998441</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.21132789367719</v>
+        <v>93.03757333333333</v>
       </c>
       <c r="H13">
-        <v>83.21132789367719</v>
+        <v>279.11272</v>
       </c>
       <c r="I13">
-        <v>0.5482749187773768</v>
+        <v>0.5563840547006929</v>
       </c>
       <c r="J13">
-        <v>0.5482749187773768</v>
+        <v>0.6398978381682568</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>11613.29219327862</v>
+        <v>13016.72541835815</v>
       </c>
       <c r="R13">
-        <v>11613.29219327862</v>
+        <v>78100.35251014888</v>
       </c>
       <c r="S13">
-        <v>0.1101624022017723</v>
+        <v>0.1097689333025121</v>
       </c>
       <c r="T13">
-        <v>0.1101624022017723</v>
+        <v>0.09822119850822686</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H14">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I14">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J14">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>1166.869489336553</v>
+        <v>3.881335488381834</v>
       </c>
       <c r="R14">
-        <v>1166.869489336553</v>
+        <v>23.288012930291</v>
       </c>
       <c r="S14">
-        <v>0.01106879460724044</v>
+        <v>3.273097055177784E-05</v>
       </c>
       <c r="T14">
-        <v>0.01106879460724044</v>
+        <v>2.928765962472487E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H15">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I15">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J15">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>789.658272093531</v>
+        <v>2.800898323442667</v>
       </c>
       <c r="R15">
-        <v>789.658272093531</v>
+        <v>25.208084910984</v>
       </c>
       <c r="S15">
-        <v>0.007490610821165015</v>
+        <v>2.361973625252027E-05</v>
       </c>
       <c r="T15">
-        <v>0.007490610821165015</v>
+        <v>3.170239611571861E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H16">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I16">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J16">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>595.7405767738966</v>
+        <v>1.993573496569</v>
       </c>
       <c r="R16">
-        <v>595.7405767738966</v>
+        <v>17.942161469121</v>
       </c>
       <c r="S16">
-        <v>0.005651129062649877</v>
+        <v>1.681163496541979E-05</v>
       </c>
       <c r="T16">
-        <v>0.005651129062649877</v>
+        <v>2.256456656960913E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H17">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I17">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J17">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>560.1446536194233</v>
+        <v>1.878101842872778</v>
       </c>
       <c r="R17">
-        <v>560.1446536194233</v>
+        <v>16.902916585855</v>
       </c>
       <c r="S17">
-        <v>0.005313470082058998</v>
+        <v>1.583787237571079E-05</v>
       </c>
       <c r="T17">
-        <v>0.005313470082058998</v>
+        <v>2.125758299402713E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H18">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I18">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J18">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>823.0074257342641</v>
+        <v>2.870917192094667</v>
       </c>
       <c r="R18">
-        <v>823.0074257342641</v>
+        <v>25.838254728852</v>
       </c>
       <c r="S18">
-        <v>0.007806957195243627</v>
+        <v>2.421019938944247E-05</v>
       </c>
       <c r="T18">
-        <v>0.007806957195243627</v>
+        <v>3.249491539105303E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>7.09032219525073</v>
+        <v>0.02358366666666667</v>
       </c>
       <c r="H19">
-        <v>7.09032219525073</v>
+        <v>0.07075100000000001</v>
       </c>
       <c r="I19">
-        <v>0.04671774774071251</v>
+        <v>0.0001410352357073828</v>
       </c>
       <c r="J19">
-        <v>0.04671774774071251</v>
+        <v>0.0001622047606724708</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>989.5525703321002</v>
+        <v>3.299549873879834</v>
       </c>
       <c r="R19">
-        <v>989.5525703321002</v>
+        <v>19.797299243279</v>
       </c>
       <c r="S19">
-        <v>0.009386785972354546</v>
+        <v>2.782482217251164E-05</v>
       </c>
       <c r="T19">
-        <v>0.009386785972354546</v>
+        <v>2.489763997733805E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H20">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I20">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J20">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>8246.347879466553</v>
+        <v>13.09371278188983</v>
       </c>
       <c r="R20">
-        <v>8246.347879466553</v>
+        <v>78.56227669133899</v>
       </c>
       <c r="S20">
-        <v>0.0782239417276781</v>
+        <v>0.0001104181611613657</v>
       </c>
       <c r="T20">
-        <v>0.0782239417276781</v>
+        <v>9.880212734194154E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H21">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I21">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J21">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>5580.569958414223</v>
+        <v>9.448850347570666</v>
       </c>
       <c r="R21">
-        <v>5580.569958414223</v>
+        <v>85.039653128136</v>
       </c>
       <c r="S21">
-        <v>0.05293666791831538</v>
+        <v>7.968134767021362E-05</v>
       </c>
       <c r="T21">
-        <v>0.05293666791831538</v>
+        <v>0.0001069482580105384</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H22">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I22">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J22">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>4210.140111543074</v>
+        <v>6.725334321601</v>
       </c>
       <c r="R22">
-        <v>4210.140111543074</v>
+        <v>60.52800889440901</v>
       </c>
       <c r="S22">
-        <v>0.03993692232785234</v>
+        <v>5.671416972073087E-05</v>
       </c>
       <c r="T22">
-        <v>0.03993692232785234</v>
+        <v>7.612172526561796E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H23">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I23">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J23">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>3958.581245615881</v>
+        <v>6.335789879366111</v>
       </c>
       <c r="R23">
-        <v>3958.581245615881</v>
+        <v>57.022108914295</v>
       </c>
       <c r="S23">
-        <v>0.03755066281552111</v>
+        <v>5.342917472208555E-05</v>
       </c>
       <c r="T23">
-        <v>0.03755066281552111</v>
+        <v>7.171260690918009E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>50.1078003443079</v>
+        <v>0.07955966666666667</v>
       </c>
       <c r="H24">
-        <v>50.1078003443079</v>
+        <v>0.238679</v>
       </c>
       <c r="I24">
-        <v>0.3301575742066237</v>
+        <v>0.0004757833673503189</v>
       </c>
       <c r="J24">
-        <v>0.3301575742066237</v>
+        <v>0.0005471989098746966</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>5816.250747843062</v>
+        <v>9.685059497278665</v>
       </c>
       <c r="R24">
-        <v>5816.250747843062</v>
+        <v>87.16553547550799</v>
       </c>
       <c r="S24">
-        <v>0.05517230975735544</v>
+        <v>8.167327924796453E-05</v>
       </c>
       <c r="T24">
-        <v>0.05517230975735544</v>
+        <v>0.0001096218274034451</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.07955966666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.238679</v>
+      </c>
+      <c r="I25">
+        <v>0.0004757833673503189</v>
+      </c>
+      <c r="J25">
+        <v>0.0005471989098746966</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.9082645</v>
+      </c>
+      <c r="N25">
+        <v>279.816529</v>
+      </c>
+      <c r="O25">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P25">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q25">
+        <v>11.13105488753183</v>
+      </c>
+      <c r="R25">
+        <v>66.78632932519101</v>
+      </c>
+      <c r="S25">
+        <v>9.386723482795869E-05</v>
+      </c>
+      <c r="T25">
+        <v>8.399236494397348E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>8.606016</v>
+      </c>
+      <c r="H26">
+        <v>25.818048</v>
+      </c>
+      <c r="I26">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J26">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>164.5772705</v>
+      </c>
+      <c r="N26">
+        <v>329.154541</v>
+      </c>
+      <c r="O26">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P26">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q26">
+        <v>1416.354623159328</v>
+      </c>
+      <c r="R26">
+        <v>8498.127738955967</v>
+      </c>
+      <c r="S26">
+        <v>0.01194399752360231</v>
+      </c>
+      <c r="T26">
+        <v>0.01068748430409194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>8.606016</v>
+      </c>
+      <c r="H27">
+        <v>25.818048</v>
+      </c>
+      <c r="I27">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J27">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>118.764328</v>
+      </c>
+      <c r="N27">
+        <v>356.292984</v>
+      </c>
+      <c r="O27">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P27">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q27">
+        <v>1022.087706997248</v>
+      </c>
+      <c r="R27">
+        <v>9198.789362975233</v>
+      </c>
+      <c r="S27">
+        <v>0.008619178305817703</v>
+      </c>
+      <c r="T27">
+        <v>0.01156865605617782</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>8.606016</v>
+      </c>
+      <c r="H28">
+        <v>25.818048</v>
+      </c>
+      <c r="I28">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J28">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N28">
+        <v>253.595871</v>
+      </c>
+      <c r="O28">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P28">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q28">
+        <v>727.4833744533121</v>
+      </c>
+      <c r="R28">
+        <v>6547.350370079808</v>
+      </c>
+      <c r="S28">
+        <v>0.006134805140502416</v>
+      </c>
+      <c r="T28">
+        <v>0.008234131853872929</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>8.606016</v>
+      </c>
+      <c r="H29">
+        <v>25.818048</v>
+      </c>
+      <c r="I29">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J29">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N29">
+        <v>238.907105</v>
+      </c>
+      <c r="O29">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P29">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q29">
+        <v>685.34612271456</v>
+      </c>
+      <c r="R29">
+        <v>6168.11510443104</v>
+      </c>
+      <c r="S29">
+        <v>0.005779465296801107</v>
+      </c>
+      <c r="T29">
+        <v>0.007757194924506736</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>8.606016</v>
+      </c>
+      <c r="H30">
+        <v>25.818048</v>
+      </c>
+      <c r="I30">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J30">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>121.733284</v>
+      </c>
+      <c r="N30">
+        <v>365.199852</v>
+      </c>
+      <c r="O30">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P30">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q30">
+        <v>1047.638589836544</v>
+      </c>
+      <c r="R30">
+        <v>9428.747308528895</v>
+      </c>
+      <c r="S30">
+        <v>0.008834646717731147</v>
+      </c>
+      <c r="T30">
+        <v>0.01185785763200726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>8.606016</v>
+      </c>
+      <c r="H31">
+        <v>25.818048</v>
+      </c>
+      <c r="I31">
+        <v>0.05146576705890407</v>
+      </c>
+      <c r="J31">
+        <v>0.05919082835395066</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>139.9082645</v>
+      </c>
+      <c r="N31">
+        <v>279.816529</v>
+      </c>
+      <c r="O31">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P31">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q31">
+        <v>1204.052762819232</v>
+      </c>
+      <c r="R31">
+        <v>7224.316576915392</v>
+      </c>
+      <c r="S31">
+        <v>0.0101536740744494</v>
+      </c>
+      <c r="T31">
+        <v>0.009085503583293983</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.592882</v>
+      </c>
+      <c r="H32">
+        <v>107.185764</v>
+      </c>
+      <c r="I32">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J32">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>164.5772705</v>
+      </c>
+      <c r="N32">
+        <v>329.154541</v>
+      </c>
+      <c r="O32">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P32">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q32">
+        <v>8820.170237788579</v>
+      </c>
+      <c r="R32">
+        <v>35280.68095115432</v>
+      </c>
+      <c r="S32">
+        <v>0.07437974201892147</v>
+      </c>
+      <c r="T32">
+        <v>0.04436997600949934</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.592882</v>
+      </c>
+      <c r="H33">
+        <v>107.185764</v>
+      </c>
+      <c r="I33">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J33">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>118.764328</v>
+      </c>
+      <c r="N33">
+        <v>356.292984</v>
+      </c>
+      <c r="O33">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P33">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q33">
+        <v>6364.922616313295</v>
+      </c>
+      <c r="R33">
+        <v>38189.53569787977</v>
+      </c>
+      <c r="S33">
+        <v>0.0536748486036568</v>
+      </c>
+      <c r="T33">
+        <v>0.04802823349908738</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.592882</v>
+      </c>
+      <c r="H34">
+        <v>107.185764</v>
+      </c>
+      <c r="I34">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J34">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N34">
+        <v>253.595871</v>
+      </c>
+      <c r="O34">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P34">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q34">
+        <v>4530.311196730074</v>
+      </c>
+      <c r="R34">
+        <v>27181.86718038044</v>
+      </c>
+      <c r="S34">
+        <v>0.03820372725172012</v>
+      </c>
+      <c r="T34">
+        <v>0.03418468017543799</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="H25">
-        <v>50.1078003443079</v>
-      </c>
-      <c r="I25">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="J25">
-        <v>0.3301575742066237</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N25">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P25">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q25">
-        <v>6993.236874004167</v>
-      </c>
-      <c r="R25">
-        <v>6993.236874004167</v>
-      </c>
-      <c r="S25">
-        <v>0.06633706965990126</v>
-      </c>
-      <c r="T25">
-        <v>0.06633706965990126</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.592882</v>
+      </c>
+      <c r="H35">
+        <v>107.185764</v>
+      </c>
+      <c r="I35">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J35">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N35">
+        <v>238.907105</v>
+      </c>
+      <c r="O35">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P35">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q35">
+        <v>4267.906762408869</v>
+      </c>
+      <c r="R35">
+        <v>25607.44057445322</v>
+      </c>
+      <c r="S35">
+        <v>0.03599089307695415</v>
+      </c>
+      <c r="T35">
+        <v>0.03220463702291423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.592882</v>
+      </c>
+      <c r="H36">
+        <v>107.185764</v>
+      </c>
+      <c r="I36">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J36">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>121.733284</v>
+      </c>
+      <c r="N36">
+        <v>365.199852</v>
+      </c>
+      <c r="O36">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P36">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q36">
+        <v>6524.037524884487</v>
+      </c>
+      <c r="R36">
+        <v>39144.22514930692</v>
+      </c>
+      <c r="S36">
+        <v>0.05501665103284174</v>
+      </c>
+      <c r="T36">
+        <v>0.04922887778696241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.592882</v>
+      </c>
+      <c r="H37">
+        <v>107.185764</v>
+      </c>
+      <c r="I37">
+        <v>0.3204965899467689</v>
+      </c>
+      <c r="J37">
+        <v>0.2457356248973998</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>139.9082645</v>
+      </c>
+      <c r="N37">
+        <v>279.816529</v>
+      </c>
+      <c r="O37">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P37">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q37">
+        <v>7498.087110173288</v>
+      </c>
+      <c r="R37">
+        <v>29992.34844069315</v>
+      </c>
+      <c r="S37">
+        <v>0.06323072796267472</v>
+      </c>
+      <c r="T37">
+        <v>0.03771922040349848</v>
       </c>
     </row>
   </sheetData>
